--- a/Documentacion/Dokumentace_Dostupnost_potravin.xlsx
+++ b/Documentacion/Dokumentace_Dostupnost_potravin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c6876aa6c5df59a/Desktop/Projekty/Food_aviability/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seido\DataGripProjects\SQL_food_availability\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="8_{46BD3F8E-8995-423B-919D-068C78AA5893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FF911B4-6D17-4F88-B8E8-1372C67917D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F061FC0B-7352-41EF-90F2-6CF48FA74EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B613F1A-D22E-46FD-9A5D-C4D38E53ECDC}"/>
   </bookViews>
@@ -917,9 +917,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">V kontextu výzkumných otázek je každý řádek v našem datasetu charakterizován svým specifickým výpočtem, </t>
-  </si>
-  <si>
     <t>Periodicita</t>
   </si>
   <si>
@@ -927,6 +924,9 @@
   </si>
   <si>
     <t>který je realizován na úrovni jednotlivých řádků u důvodu rozdílnosti jednotlivých platů (mezd) a vlivu % změn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V kontextu výzkumných otázek je každý řádek v datasetu charakterizován svým specifickým výpočtem, </t>
   </si>
 </sst>
 </file>
@@ -1397,10 +1397,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
@@ -1720,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133E8BD5-A73B-4A49-9C3B-F3F2C2464C63}">
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -1831,24 +1827,24 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4"/>
     <row r="26" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="2:4" ht="21.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4"/>

--- a/Documentacion/Dokumentace_Dostupnost_potravin.xlsx
+++ b/Documentacion/Dokumentace_Dostupnost_potravin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seido\DataGripProjects\SQL_food_availability\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F061FC0B-7352-41EF-90F2-6CF48FA74EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF4BB41-3021-4105-914C-E90E605236B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B613F1A-D22E-46FD-9A5D-C4D38E53ECDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>Datová sada</t>
   </si>
@@ -267,9 +267,6 @@
     </r>
   </si>
   <si>
-    <t>ΔP_yr_measure_grow</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
@@ -323,12 +320,6 @@
     </r>
   </si>
   <si>
-    <t>ΔP_food_dif</t>
-  </si>
-  <si>
-    <t>ΔP_yr_grow_salary</t>
-  </si>
-  <si>
     <t>P_diff_HDP</t>
   </si>
   <si>
@@ -366,12 +357,6 @@
     <t>• Výzkumná otázka číslo 5</t>
   </si>
   <si>
-    <t>Celkově lze konstatovat, že množství jednotek zakoupeného zboží je závislé na změně cen jednotky a na změně mezd v příslušném sektoru.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V souvislosti se změnami platů (mezd) v jednotlivých sektorech lze konstatovat následující: </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Nicméně, v posledním sledovaném </t>
     </r>
@@ -538,50 +523,101 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">V oblastech, kde došlo ke </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">snížení </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>platů</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+    <t>Pro výpočet procetního meziročního růstu byla použita obecná metoda výpočtu procentuálního meziročního růstu - YOY.</t>
+  </si>
+  <si>
+    <r>
+      <t>V období let</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> až</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> byl zaznamenán procentuální nárůst cen potravin, který</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> překročil 10%.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pokles HDP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>může mít</t>
     </r>
     <r>
       <rPr>
@@ -592,18 +628,18 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">mezd), byla kupní síla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nižší</t>
+      <t xml:space="preserve"> negativní dopad na růst cen jídla, ale</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pokles HDP nemusí nutně vést </t>
     </r>
     <r>
       <rPr>
@@ -614,23 +650,23 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Naopak, sektory s příjmy, které se postupně </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>zvyšovaly</t>
+      <t>k poklesu cen jídla a mezd.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Z těchto údajů vyplývá, že </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HDP může ovlivnit</t>
     </r>
     <r>
       <rPr>
@@ -641,18 +677,18 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, mohly pořídit </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>více jednotek</t>
+      <t xml:space="preserve"> růst cen jídla a mezd, ale tento vliv </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>může být ovlivněn</t>
     </r>
     <r>
       <rPr>
@@ -663,12 +699,247 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> sledovaného zboží. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mezi všemi kategoriemi zboží se nejmenším procentuálním nárustem ve sledovaném období vyznačuje: </t>
+      <t xml:space="preserve"> řadou dalších faktorů.</t>
+    </r>
+  </si>
+  <si>
+    <t>Periodicita</t>
+  </si>
+  <si>
+    <t>Roční</t>
+  </si>
+  <si>
+    <t>který je realizován na úrovni jednotlivých řádků u důvodu rozdílnosti jednotlivých platů (mezd) a vlivu % změn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V kontextu výzkumných otázek je každý řádek v datasetu charakterizován svým specifickým výpočtem, </t>
+  </si>
+  <si>
+    <t>P_food_dif</t>
+  </si>
+  <si>
+    <t>P_yr_measure_grow</t>
+  </si>
+  <si>
+    <t>P_yr_grow_salary</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V průběhu monitorovaného období </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nebyl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zaznamenán pokles cen u žádného z analyzovaných produktů.</t>
+    </r>
+  </si>
+  <si>
+    <t>polotučného mléka.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V roce </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> umožňoval průměrný plat ze všech odvětví v České republice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nákup</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 182 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kmínového chleba a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 322</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> litrů</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Do roku</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se tato kupní síla zvýšila, což umožnilo pořízení</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 232</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kg kmínového chleba a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 505</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> litrů polotučného mléka.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mezi všemi kategoriemi zboží se</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nejmenším </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">procentuálním nárustem ve sledovaném období vyznačuje: </t>
     </r>
     <r>
       <rPr>
@@ -683,22 +954,38 @@
     </r>
   </si>
   <si>
-    <t>Pro výpočet procetního meziročního růstu byla použita obecná metoda výpočtu procentuálního meziročního růstu - YOY.</t>
-  </si>
-  <si>
-    <r>
-      <t>V období let</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2007</t>
+    <r>
+      <t xml:space="preserve">Vzhledem k nedostatku dat pro sledované období byla z analýzy vyloučena položka </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Jakostní víno bílé'.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kvůli kategorizaci dat a rozmanitosti výsledků pro jednotlivé položky nelze vytvořit konkrétní závěry.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ovšem na základě zjištěných informací z dat lze konstatovat, že </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">existuje korelace </t>
     </r>
     <r>
       <rPr>
@@ -709,224 +996,8 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> až</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2012</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> byl zaznamenán procentuální nárůst cen potravin, který</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> překročil 10%.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Na základě zjištěných informací z dat lze konstatovat, že </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">existuje korelace </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">mezi HDP a růstem cen jídla a mezd. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Růst HDP může být v souladu s růstem cen jídla a mezd, ale</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> může být ovlivněn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> řadou dalších faktorů.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pokles HDP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>může mít</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> negativní dopad na růst cen jídla, ale</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pokles HDP nemusí nutně vést </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>k poklesu cen jídla a mezd.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Z těchto údajů vyplývá, že </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HDP může ovlivnit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> růst cen jídla a mezd, ale tento vliv </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>může být ovlivněn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> řadou dalších faktorů.</t>
-    </r>
-  </si>
-  <si>
-    <t>Periodicita</t>
-  </si>
-  <si>
-    <t>Roční</t>
-  </si>
-  <si>
-    <t>který je realizován na úrovni jednotlivých řádků u důvodu rozdílnosti jednotlivých platů (mezd) a vlivu % změn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V kontextu výzkumných otázek je každý řádek v datasetu charakterizován svým specifickým výpočtem, </t>
+      <t xml:space="preserve">mezi HDP, růstem a poklesem cen jídla a mezd. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -936,7 +1007,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -1029,6 +1100,14 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1069,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1100,10 +1179,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1398,7 +1480,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1714,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133E8BD5-A73B-4A49-9C3B-F3F2C2464C63}">
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -1827,24 +1909,24 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4"/>
     <row r="26" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="2:4" ht="21.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4"/>
@@ -1875,7 +1957,7 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1961,7 +2043,7 @@
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
@@ -1971,7 +2053,7 @@
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" s="4" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
@@ -1981,7 +2063,7 @@
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
@@ -1991,17 +2073,17 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
@@ -2011,17 +2093,17 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
@@ -2031,37 +2113,37 @@
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B66" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" s="4" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.4">
@@ -2071,7 +2153,7 @@
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B72" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.4">
@@ -2081,17 +2163,17 @@
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B75" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B76" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.4">
@@ -2101,7 +2183,7 @@
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B78" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.4">
@@ -2111,7 +2193,7 @@
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B80" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.4">
@@ -2140,18 +2222,18 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I88" s="12"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H89" s="7"/>
     </row>
@@ -2165,95 +2247,103 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B92" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B93" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B95" t="s">
-        <v>55</v>
-      </c>
-    </row>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="96" spans="2:9" x14ac:dyDescent="0.4"/>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B97" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B98" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B99" s="4"/>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B100" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B99" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B101" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B101" t="s">
-        <v>64</v>
-      </c>
-      <c r="E101" s="7"/>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.4"/>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B103" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B104" t="s">
-        <v>65</v>
-      </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B105" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B106" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B102" t="s">
+        <v>56</v>
+      </c>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.4"/>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B104" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B105" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B106" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B108" s="6"/>
-    </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B109" s="6"/>
-    </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B110" s="5"/>
-    </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L111" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B108" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B110" s="6"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B111" s="6"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L113" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.4"/>
-    <row r="113" x14ac:dyDescent="0.4"/>
-    <row r="114" x14ac:dyDescent="0.4"/>
-    <row r="115" x14ac:dyDescent="0.4"/>
+    <row r="114" spans="12:12" x14ac:dyDescent="0.4"/>
+    <row r="115" spans="12:12" x14ac:dyDescent="0.4"/>
+    <row r="116" spans="12:12" x14ac:dyDescent="0.4"/>
+    <row r="117" spans="12:12" x14ac:dyDescent="0.4"/>
+    <row r="118" spans="12:12" x14ac:dyDescent="0.4"/>
+    <row r="119" spans="12:12" x14ac:dyDescent="0.4"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
